--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1025.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1025.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.0647903588295</v>
+        <v>1.313390374183655</v>
       </c>
       <c r="B1">
-        <v>3.496706312250898</v>
+        <v>1.573299288749695</v>
       </c>
       <c r="C1">
-        <v>3.315159483231612</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.382660538405958</v>
+        <v>2.041088819503784</v>
       </c>
       <c r="E1">
-        <v>1.198699383800685</v>
+        <v>0.8318157196044922</v>
       </c>
     </row>
   </sheetData>
